--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1192.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1192.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070461762427907</v>
+        <v>1.172146677970886</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.437282562255859</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.36595606803894</v>
       </c>
       <c r="E1">
-        <v>1.020721923665166</v>
+        <v>1.237607955932617</v>
       </c>
     </row>
   </sheetData>
